--- a/static/excel/order_test.xlsx
+++ b/static/excel/order_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8900" yWindow="200" windowWidth="25600" windowHeight="16660" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>商家名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,6 +82,18 @@
   </si>
   <si>
     <t>中关村小区322号楼1单元402室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>183105098586</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5362178278</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -146,8 +158,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -484,7 +497,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -493,7 +506,7 @@
     <col min="3" max="3" width="13.6640625" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -529,13 +542,13 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2">
-        <v>5362178278</v>
+      <c r="A2" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="s">
@@ -547,14 +560,14 @@
       <c r="F2">
         <v>13</v>
       </c>
-      <c r="G2">
-        <v>0</v>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="I2">
-        <v>183105098586</v>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="J2" t="s">
         <v>15</v>

--- a/static/excel/order_test.xlsx
+++ b/static/excel/order_test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>商家名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,6 +94,14 @@
   </si>
   <si>
     <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洋葱达人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔬菜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -153,8 +161,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -162,9 +172,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -494,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -573,6 +585,38 @@
         <v>15</v>
       </c>
     </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>23</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/static/excel/order_test.xlsx
+++ b/static/excel/order_test.xlsx
@@ -61,10 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>洋葱达人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>010-57154920</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -77,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>何豆豆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中关村小区322号楼1单元402室</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,11 +89,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>洋葱达人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>蔬菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5362178273</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲜农乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,7 +509,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -519,6 +519,7 @@
     <col min="4" max="4" width="28" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -555,66 +556,66 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
       </c>
       <c r="F2">
         <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F3">
         <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
